--- a/1. Bộ quy trình/2. Quy trình Bảo hành/02.XuLyBH/XLBH_yymm_KhachHang.xlsx
+++ b/1. Bộ quy trình/2. Quy trình Bảo hành/02.XuLyBH/XLBH_yymm_KhachHang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET_PKT\PhongBaoHanh\PL02.MauGiayTo\MauBaoHanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\1. Bộ quy trình\2. Quy trình Bảo hành\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -268,9 +268,6 @@
   <si>
     <t>FW
 Ver. Mới</t>
-  </si>
-  <si>
-    <t>Thương</t>
   </si>
   <si>
     <t>Nhân
@@ -278,10 +275,22 @@
 BH</t>
   </si>
   <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 07 NĂM 2015</t>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Phân loại xử lý</t>
+  </si>
+  <si>
+    <t>Ghi chú xử lý</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>NCFW</t>
+  </si>
+  <si>
+    <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 07 NĂM 2020</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,14 +1023,14 @@
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="14" max="16" width="6.28515625" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1037,9 +1046,11 @@
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
       <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="32"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
@@ -1059,9 +1070,11 @@
       <c r="M2" s="28"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="33"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -1077,9 +1090,11 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>0</v>
       </c>
@@ -1107,14 +1122,20 @@
         <v>9</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1152,10 +1173,12 @@
       </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1185,11 +1208,17 @@
         <v>14</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="25"/>
-    </row>
-    <row r="7" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1205,13 +1234,13 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="36"/>
-      <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1229,9 +1258,11 @@
       <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -1249,9 +1280,11 @@
       <c r="M9" s="6"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1269,9 +1302,11 @@
       <c r="M10" s="6"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1289,9 +1324,11 @@
       <c r="M11" s="6"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
@@ -1309,9 +1346,11 @@
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
@@ -1329,9 +1368,11 @@
       <c r="M13" s="6"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1349,9 +1390,11 @@
       <c r="M14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
@@ -1367,7 +1410,9 @@
       <c r="M15" s="6"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="6"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
@@ -1375,18 +1420,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
